--- a/biology/Botanique/Salix_subserrata/Salix_subserrata.xlsx
+++ b/biology/Botanique/Salix_subserrata/Salix_subserrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Salix  subserrata est une espèce de saule de la famille des Salicaceae originaire d'Afrique[1].
+Salix  subserrata est une espèce de saule de la famille des Salicaceae originaire d'Afrique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le saule safsaf peut également être appelé Salix mucronata subsp. subserrata (www.aluka.org)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saule safsaf peut également être appelé Salix mucronata subsp. subserrata (www.aluka.org).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' arbre peut atteindre 7 m. Les feuilles étroitement lancéolées sont simples, alternes et parfois dispersées le long de la branche. Les chatons femelles sont plus courts que les chatons mâles. L'arbre se trouve dans de nombreuses régions d'Afrique (Coates Palgrave )[1] : Soudan, Gambie, Afrique du Sud, Tanzanie, Zambie..., à une altitude comprise entre 800 m et 1 200 m[2].
-Cette espèce a fait l'objet d'études pour mettre en évidence son intérêt dans les traitements médicaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' arbre peut atteindre 7 m. Les feuilles étroitement lancéolées sont simples, alternes et parfois dispersées le long de la branche. Les chatons femelles sont plus courts que les chatons mâles. L'arbre se trouve dans de nombreuses régions d'Afrique (Coates Palgrave ) : Soudan, Gambie, Afrique du Sud, Tanzanie, Zambie..., à une altitude comprise entre 800 m et 1 200 m.
+Cette espèce a fait l'objet d'études pour mettre en évidence son intérêt dans les traitements médicaux.
 </t>
         </is>
       </c>
